--- a/@Papers/SPE2022/2_GOM_MODEL/GOM_boost_Stack.xlsx
+++ b/@Papers/SPE2022/2_GOM_MODEL/GOM_boost_Stack.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\2_GOM_MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\2_GOM_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD5B921-3549-481C-AECD-C3AC8F0DCD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FC5A3-6910-4FCB-8AE8-B35734E2A2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C7B194DC-44CB-4D29-AEAC-1AF9DABABD7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C7B194DC-44CB-4D29-AEAC-1AF9DABABD7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="GOM_unsorted" sheetId="1" r:id="rId1"/>
-    <sheet name="GOM_sorted" sheetId="3" r:id="rId2"/>
+    <sheet name="GOM_unsorted_w_tuning" sheetId="1" r:id="rId1"/>
+    <sheet name="GOM_sorted_w_tuning" sheetId="3" r:id="rId2"/>
+    <sheet name="GOM_unsorted_wo_tuning" sheetId="4" r:id="rId3"/>
+    <sheet name="GOM_sorted_wo_tuning" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="31">
   <si>
     <t>BaggingRegressor</t>
   </si>
@@ -135,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +155,19 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -189,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +223,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,14 +556,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.28515625" style="1"/>
-    <col min="8" max="8" width="32.28515625" style="2"/>
-    <col min="9" max="16384" width="32.28515625" style="1"/>
+    <col min="1" max="7" width="28.7109375" style="1"/>
+    <col min="8" max="8" width="28.7109375" style="2"/>
+    <col min="9" max="16384" width="28.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,15 +1009,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6224C01B-BBE6-44C2-8F9F-8DAD28FB3B8B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.28515625" style="1"/>
-    <col min="8" max="8" width="32.28515625" style="2"/>
-    <col min="9" max="16384" width="32.28515625" style="1"/>
+    <col min="1" max="7" width="28.5703125" style="1"/>
+    <col min="8" max="8" width="28.5703125" style="2"/>
+    <col min="9" max="16384" width="28.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,7 +1066,7 @@
       <c r="G2" s="5">
         <v>9.06E-2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>0.58850000000000002</v>
       </c>
       <c r="I2" s="5">
@@ -1068,7 +1098,7 @@
       <c r="G3" s="5">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>0.54969999999999997</v>
       </c>
       <c r="I3" s="5">
@@ -1100,7 +1130,7 @@
       <c r="G4" s="5">
         <v>9.69E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>0.54159999999999997</v>
       </c>
       <c r="I4" s="5">
@@ -1196,7 +1226,7 @@
       <c r="G7" s="5">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>0.52390000000000003</v>
       </c>
       <c r="I7" s="5">
@@ -1427,4 +1457,911 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB23D0-8126-4762-B0F8-761A10969CD6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="28.5703125" style="7"/>
+    <col min="8" max="8" width="28.5703125" style="8"/>
+    <col min="9" max="16384" width="28.5703125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="I2" s="7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.69869999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1091</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.1022</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.1075</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.3399000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.1017</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.1007</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.61109999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9.69E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.67959999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.1076</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.1303</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.1051</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.3828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.1153</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.1444</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.3136000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1021</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.85870000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.1021</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.85870000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.5393</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.5393</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.5988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A198F3-93A8-4F64-A041-A931604EF821}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="28.5703125" style="7"/>
+    <col min="8" max="8" width="28.5703125" style="8"/>
+    <col min="9" max="16384" width="28.5703125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="I2" s="7">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.61109999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>9.69E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I4" s="5">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.67959999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.5393</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.5393</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.5988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.69869999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.1007</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.1017</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.1021</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.85870000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1021</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.85870000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.1076</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.1303</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.1051</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.3828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1091</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.1022</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.1075</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.3399000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.1153</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.1444</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-1.6799999999999999E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.3136000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J14">
+    <sortCondition descending="1" ref="H1:H14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+</worksheet>
 </file>